--- a/config_hlw/cpl_ljyjcfk_config.xlsx
+++ b/config_hlw/cpl_ljyjcfk_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="helpinfo|帮助信息" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'base|基础'!$G$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'base|基础'!$G$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>id|</t>
   </si>
@@ -73,38 +73,6 @@
     <t>button_image|按钮图片</t>
   </si>
   <si>
-    <t>30,40,50</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,80,100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,180,200</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>800,900,1000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500,4800,5000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,9000,10000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,18000,20000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏累计赢金5000万</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -170,83 +138,75 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>30,40,20</t>
-  </si>
-  <si>
-    <t>50,80,100</t>
+    <t>actp_own_task_p_ljyjcfk_hlw</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_ljyjcfk_hlw</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金50万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金100万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金200万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金500万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金1000万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金1亿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金2亿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>150,180,200</t>
-  </si>
-  <si>
-    <t>300,400,500</t>
-  </si>
-  <si>
-    <t>800,900,1000</t>
-  </si>
-  <si>
-    <t>4500,4800,5000</t>
-  </si>
-  <si>
-    <t>8000,9000,10000</t>
-  </si>
-  <si>
-    <t>15000,18000,20000</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_ljyjcfk_hlw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_ljyjcfk_hlw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金3万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金10万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金50万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金100万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金200万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金500万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金1000万</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金1亿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金2亿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,90,100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,48,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5,1.8,2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.8,1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.4,0.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.4,0.2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,9 +361,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,16 +679,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -742,28 +699,28 @@
         <v>21842</v>
       </c>
       <c r="C2" s="7">
-        <v>30000</v>
+        <v>500000</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -774,28 +731,28 @@
         <v>21842</v>
       </c>
       <c r="C3" s="7">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -806,28 +763,28 @@
         <v>21842</v>
       </c>
       <c r="C4" s="7">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -838,28 +795,28 @@
         <v>21842</v>
       </c>
       <c r="C5" s="7">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -870,28 +827,28 @@
         <v>21842</v>
       </c>
       <c r="C6" s="7">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -902,28 +859,28 @@
         <v>21842</v>
       </c>
       <c r="C7" s="7">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -934,28 +891,28 @@
         <v>21842</v>
       </c>
       <c r="C8" s="7">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -966,92 +923,28 @@
         <v>21842</v>
       </c>
       <c r="C9" s="7">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>21842</v>
-      </c>
-      <c r="C10" s="7">
-        <v>100000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>21842</v>
-      </c>
-      <c r="C11" s="7">
-        <v>200000000</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
